--- a/COST.xlsx
+++ b/COST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E7CD2A-101E-43AA-9759-D100BA06ECC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34091995-AB76-4B8C-9DDC-AAA4496BAD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" xr2:uid="{A417974C-84E3-45BB-9954-F43481646C86}"/>
+    <workbookView xWindow="220" yWindow="240" windowWidth="17850" windowHeight="20070" activeTab="1" xr2:uid="{A417974C-84E3-45BB-9954-F43481646C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Price</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Operating Income</t>
   </si>
   <si>
-    <t>Q125</t>
-  </si>
-  <si>
     <t>CFFO</t>
   </si>
   <si>
@@ -106,6 +103,102 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>Revenue y/y</t>
+  </si>
+  <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>OLTA</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>PP&amp;E</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>OCA</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Salaries</t>
+  </si>
+  <si>
+    <t>Rewards/Fees</t>
+  </si>
+  <si>
+    <t>OCL</t>
+  </si>
+  <si>
+    <t>Lease</t>
+  </si>
+  <si>
+    <t>OLTL</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>L+SE</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>FY25</t>
+  </si>
+  <si>
+    <t>FQ425</t>
+  </si>
+  <si>
+    <t>FQ325</t>
+  </si>
+  <si>
+    <t>FQ225</t>
+  </si>
+  <si>
+    <t>FQ125</t>
+  </si>
+  <si>
+    <t>FQ424</t>
+  </si>
+  <si>
+    <t>FQ124</t>
+  </si>
+  <si>
+    <t>FQ224</t>
+  </si>
+  <si>
+    <t>FQ324</t>
+  </si>
+  <si>
+    <t>FQ126</t>
+  </si>
+  <si>
+    <t>FQ226</t>
+  </si>
+  <si>
+    <t>FQ326</t>
+  </si>
+  <si>
+    <t>FQ426</t>
+  </si>
+  <si>
+    <t>FY26</t>
   </si>
 </sst>
 </file>
@@ -173,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -185,6 +278,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -201,6 +303,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>8759</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76DCC8E-C2AC-98E1-BE98-19C762633698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9222828" y="39414"/>
+          <a:ext cx="0" cy="7703207"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E02ACE3-046E-4AC2-8D68-BB925063D7D7}">
   <dimension ref="I2:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="D1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -536,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="4">
-        <v>981.25</v>
+        <v>914</v>
       </c>
     </row>
     <row r="3" spans="9:11" x14ac:dyDescent="0.25">
@@ -547,7 +704,7 @@
         <v>445</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="9:11" x14ac:dyDescent="0.25">
@@ -556,7 +713,7 @@
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>436656.25</v>
+        <v>406730</v>
       </c>
       <c r="K4" s="5"/>
     </row>
@@ -565,11 +722,10 @@
         <v>3</v>
       </c>
       <c r="J5" s="2">
-        <f>12356+802</f>
-        <v>13158</v>
+        <v>15284</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="9:11" x14ac:dyDescent="0.25">
@@ -577,10 +733,10 @@
         <v>4</v>
       </c>
       <c r="J6" s="2">
-        <v>5755</v>
+        <v>5713</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="9:11" x14ac:dyDescent="0.25">
@@ -589,7 +745,7 @@
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>429253.25</v>
+        <v>397159</v>
       </c>
     </row>
   </sheetData>
@@ -599,13 +755,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{143457DD-B4A5-4633-B41D-28FA9C054CD1}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -613,15 +769,17 @@
     <col min="1" max="1" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.08984375" style="1" customWidth="1"/>
     <col min="3" max="12" width="9.36328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="13" max="21" width="8.7265625" style="1"/>
+    <col min="22" max="23" width="8.7265625" style="5"/>
+    <col min="24" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D2" s="7">
         <v>44969</v>
       </c>
@@ -649,629 +807,1114 @@
       <c r="L2" s="7">
         <v>45704</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="M2" s="7">
+        <f>+I2+365</f>
+        <v>45789</v>
+      </c>
+      <c r="N2" s="7">
+        <v>45900</v>
+      </c>
+      <c r="O2" s="7">
+        <f>+K2+365</f>
+        <v>45985</v>
+      </c>
+      <c r="P2" s="7">
+        <f>+L2+365</f>
+        <v>46069</v>
+      </c>
+      <c r="Q2" s="7">
+        <f>+M2+365</f>
+        <v>46154</v>
+      </c>
+      <c r="R2" s="7">
+        <f>+N2+365</f>
+        <v>46265</v>
+      </c>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="2">
         <v>54239</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="2">
         <v>52604</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>77430</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G4" s="2">
         <v>56717</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H4" s="2">
         <v>57331</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I4" s="2">
         <v>57392</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J4" s="2">
         <v>78185</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K4" s="2">
         <v>60985</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L4" s="2">
         <v>62530</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="M4" s="2">
+        <v>61965</v>
+      </c>
+      <c r="N4" s="2">
+        <v>84432</v>
+      </c>
+      <c r="V4" s="10">
+        <f>SUM(K4:N4)</f>
+        <v>269912</v>
+      </c>
+      <c r="W4" s="10"/>
+    </row>
+    <row r="5" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>1027</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>1044</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>1509</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>1082</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>1111</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="2">
         <v>1123</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="2">
         <v>1512</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>1166</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L5" s="2">
         <v>1193</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="M5" s="2">
+        <v>1240</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1724</v>
+      </c>
+      <c r="V5" s="10">
+        <f>SUM(K5:N5)</f>
+        <v>5323</v>
+      </c>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" s="3" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
-        <f t="shared" ref="D5:L5" si="0">+D3+D4</f>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:N6" si="0">+D4+D5</f>
         <v>55266</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>53648</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <f t="shared" si="0"/>
         <v>78939</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>57799</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H6" s="3">
         <f t="shared" si="0"/>
         <v>58442</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>58515</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="0"/>
         <v>79697</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>62151</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L6" s="3">
         <f t="shared" si="0"/>
         <v>63723</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
+      <c r="M6" s="3">
+        <f t="shared" si="0"/>
+        <v>63205</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="0"/>
+        <v>86156</v>
+      </c>
+      <c r="V6" s="3">
+        <f t="shared" ref="V6" si="1">+V4+V5</f>
+        <v>275235</v>
+      </c>
+      <c r="W6" s="11"/>
+    </row>
+    <row r="7" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>48423</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E7" s="2">
         <v>47175</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F7" s="2">
         <v>69219</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G7" s="2">
         <v>50457</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H7" s="2">
         <v>51140</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I7" s="2">
         <v>51173</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J7" s="2">
         <v>69588</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K7" s="2">
         <v>54109</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L7" s="2">
         <v>55744</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="M7" s="2">
+        <v>54996</v>
+      </c>
+      <c r="N7" s="2">
+        <v>75037</v>
+      </c>
+      <c r="V7" s="10">
+        <f>SUM(K7:N7)</f>
+        <v>239886</v>
+      </c>
+      <c r="W7" s="10"/>
+    </row>
+    <row r="8" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:L7" si="1">+D5-D6</f>
+      <c r="D8" s="2">
+        <f t="shared" ref="D8:M8" si="2">+D6-D7</f>
         <v>6843</v>
       </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
+      <c r="E8" s="2">
+        <f t="shared" si="2"/>
         <v>6473</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
+      <c r="F8" s="2">
+        <f t="shared" si="2"/>
         <v>9720</v>
       </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
         <v>7342</v>
       </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
         <v>7302</v>
       </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
+      <c r="I8" s="2">
+        <f t="shared" si="2"/>
         <v>7342</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" si="1"/>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
         <v>10109</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" si="1"/>
+      <c r="K8" s="2">
+        <f t="shared" si="2"/>
         <v>8042</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
         <v>7979</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="M8" s="2">
+        <f t="shared" si="2"/>
+        <v>8209</v>
+      </c>
+      <c r="N8" s="2">
+        <f>+N6-N7</f>
+        <v>11119</v>
+      </c>
+      <c r="V8" s="10">
+        <f>+V6-V7</f>
+        <v>35349</v>
+      </c>
+      <c r="W8" s="10"/>
+    </row>
+    <row r="9" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D9" s="2">
         <v>4940</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E9" s="2">
         <v>4794</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F9" s="2">
         <v>6939</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G9" s="2">
         <v>5358</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H9" s="2">
         <v>5240</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I9" s="2">
         <v>5145</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J9" s="2">
         <v>7067</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K9" s="2">
         <v>5846</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L9" s="2">
         <v>5663</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
+      <c r="M9" s="2">
+        <v>5679</v>
+      </c>
+      <c r="N9" s="2">
+        <v>7778</v>
+      </c>
+      <c r="V9" s="10">
+        <f>SUM(K9:N9)</f>
+        <v>24966</v>
+      </c>
+      <c r="W9" s="10"/>
+    </row>
+    <row r="10" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:L9" si="2">+D7-D8</f>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:N10" si="3">+D8-D9</f>
         <v>1903</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="2"/>
+      <c r="E10" s="2">
+        <f t="shared" si="3"/>
         <v>1679</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
+      <c r="F10" s="2">
+        <f t="shared" si="3"/>
         <v>2781</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="2"/>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
         <v>1984</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="3"/>
         <v>2062</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" si="2"/>
+      <c r="I10" s="2">
+        <f t="shared" si="3"/>
         <v>2197</v>
       </c>
-      <c r="J9" s="2">
-        <f t="shared" si="2"/>
+      <c r="J10" s="2">
+        <f t="shared" si="3"/>
         <v>3042</v>
       </c>
-      <c r="K9" s="2">
-        <f t="shared" si="2"/>
+      <c r="K10" s="2">
+        <f t="shared" si="3"/>
         <v>2196</v>
       </c>
-      <c r="L9" s="2">
-        <f t="shared" si="2"/>
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
         <v>2316</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="M10" s="2">
+        <f t="shared" si="3"/>
+        <v>2530</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="3"/>
+        <v>3341</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" ref="V10" si="4">+V8-V9</f>
+        <v>10383</v>
+      </c>
+      <c r="W10" s="10"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D11" s="1">
         <f>-34+114</f>
         <v>80</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E11" s="1">
         <f>-36+128</f>
         <v>92</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F11" s="1">
         <f>-56+238</f>
         <v>182</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
         <f>-38+160</f>
         <v>122</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H11" s="1">
         <f>-41+216</f>
         <v>175</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I11" s="1">
         <f>-41+128</f>
         <v>87</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J11" s="1">
         <f>-49+120</f>
         <v>71</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K11" s="1">
         <f>-37+147</f>
         <v>110</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L11" s="1">
         <f>-36+142</f>
         <v>106</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="M11" s="1">
+        <f>-35+85</f>
+        <v>50</v>
+      </c>
+      <c r="N11" s="1">
+        <f>-46+215</f>
+        <v>169</v>
+      </c>
+      <c r="V11" s="10">
+        <f>SUM(K11:N11)</f>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11:L11" si="3">+D9+D10</f>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:N12" si="5">+D10+D11</f>
         <v>1983</v>
       </c>
-      <c r="E11" s="2">
-        <f t="shared" si="3"/>
+      <c r="E12" s="2">
+        <f t="shared" si="5"/>
         <v>1771</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="3"/>
+      <c r="F12" s="2">
+        <f t="shared" si="5"/>
         <v>2963</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" si="3"/>
+      <c r="G12" s="2">
+        <f t="shared" si="5"/>
         <v>2106</v>
       </c>
-      <c r="H11" s="2">
-        <f t="shared" si="3"/>
+      <c r="H12" s="2">
+        <f t="shared" si="5"/>
         <v>2237</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" si="3"/>
+      <c r="I12" s="2">
+        <f t="shared" si="5"/>
         <v>2284</v>
       </c>
-      <c r="J11" s="2">
-        <f t="shared" si="3"/>
+      <c r="J12" s="2">
+        <f t="shared" si="5"/>
         <v>3113</v>
       </c>
-      <c r="K11" s="2">
-        <f t="shared" si="3"/>
+      <c r="K12" s="2">
+        <f t="shared" si="5"/>
         <v>2306</v>
       </c>
-      <c r="L11" s="2">
-        <f t="shared" si="3"/>
+      <c r="L12" s="2">
+        <f t="shared" si="5"/>
         <v>2422</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+      <c r="M12" s="2">
+        <f t="shared" si="5"/>
+        <v>2580</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="5"/>
+        <v>3510</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" ref="V12" si="6">+V10+V11</f>
+        <v>10818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <v>517</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <v>469</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>803</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G13" s="1">
         <v>517</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <v>494</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <v>603</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J13" s="1">
         <v>759</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K13" s="1">
         <v>508</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L13" s="1">
         <v>634</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="M13" s="1">
+        <v>677</v>
+      </c>
+      <c r="N13" s="1">
+        <v>900</v>
+      </c>
+      <c r="V13" s="10">
+        <f>SUM(K13:N13)</f>
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <f t="shared" ref="D13:L13" si="4">+D11-D12</f>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
+        <f t="shared" ref="D14:N14" si="7">+D12-D13</f>
         <v>1466</v>
       </c>
-      <c r="E13" s="2">
-        <f t="shared" si="4"/>
+      <c r="E14" s="2">
+        <f t="shared" si="7"/>
         <v>1302</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="4"/>
+      <c r="F14" s="2">
+        <f t="shared" si="7"/>
         <v>2160</v>
       </c>
-      <c r="G13" s="2">
-        <f t="shared" si="4"/>
+      <c r="G14" s="2">
+        <f t="shared" si="7"/>
         <v>1589</v>
       </c>
-      <c r="H13" s="2">
-        <f t="shared" si="4"/>
+      <c r="H14" s="2">
+        <f t="shared" si="7"/>
         <v>1743</v>
       </c>
-      <c r="I13" s="2">
-        <f t="shared" si="4"/>
+      <c r="I14" s="2">
+        <f t="shared" si="7"/>
         <v>1681</v>
       </c>
-      <c r="J13" s="2">
-        <f t="shared" si="4"/>
+      <c r="J14" s="2">
+        <f t="shared" si="7"/>
         <v>2354</v>
       </c>
-      <c r="K13" s="2">
-        <f t="shared" si="4"/>
+      <c r="K14" s="2">
+        <f t="shared" si="7"/>
         <v>1798</v>
       </c>
-      <c r="L13" s="2">
-        <f t="shared" si="4"/>
+      <c r="L14" s="2">
+        <f t="shared" si="7"/>
         <v>1788</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="M14" s="2">
+        <f t="shared" si="7"/>
+        <v>1903</v>
+      </c>
+      <c r="N14" s="2">
+        <f t="shared" si="7"/>
+        <v>2610</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" ref="V14" si="8">+V12-V13</f>
+        <v>8099</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <f t="shared" ref="D14:L14" si="5">+D13/D15</f>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <f t="shared" ref="D15:N15" si="9">+D14/D16</f>
         <v>3.2982732437144944</v>
       </c>
-      <c r="E14" s="4">
-        <f t="shared" si="5"/>
+      <c r="E15" s="4">
+        <f t="shared" si="9"/>
         <v>2.9300567107750473</v>
       </c>
-      <c r="F14" s="4">
-        <f t="shared" si="5"/>
+      <c r="F15" s="4">
+        <f t="shared" si="9"/>
         <v>4.8599939250075934</v>
       </c>
-      <c r="G14" s="4">
-        <f t="shared" si="5"/>
+      <c r="G15" s="4">
+        <f t="shared" si="9"/>
         <v>3.575583423154209</v>
       </c>
-      <c r="H14" s="4">
-        <f t="shared" si="5"/>
+      <c r="H15" s="4">
+        <f t="shared" si="9"/>
         <v>3.9190204022898052</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="5"/>
+      <c r="I15" s="4">
+        <f t="shared" si="9"/>
         <v>3.7789887327236595</v>
       </c>
-      <c r="J14" s="4">
-        <f t="shared" si="5"/>
+      <c r="J15" s="4">
+        <f t="shared" si="9"/>
         <v>5.2901610645044581</v>
       </c>
-      <c r="K14" s="4">
-        <f t="shared" si="5"/>
+      <c r="K15" s="4">
+        <f t="shared" si="9"/>
         <v>4.0414393637992223</v>
       </c>
-      <c r="L14" s="4">
-        <f t="shared" si="5"/>
+      <c r="L15" s="4">
+        <f t="shared" si="9"/>
         <v>4.0190071164298269</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="M15" s="4">
+        <f t="shared" si="9"/>
+        <v>4.2786928739415684</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="9"/>
+        <v>5.8690460663899291</v>
+      </c>
+      <c r="V15" s="4">
+        <f t="shared" ref="V15" si="10">+V14/V16</f>
+        <v>18.207722938662187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <v>444.47500000000002</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>444.36</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F16" s="2">
         <v>444.44499999999999</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G16" s="2">
         <v>444.40300000000002</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H16" s="2">
         <v>444.75400000000002</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I16" s="2">
         <v>444.82799999999997</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J16" s="2">
         <v>444.97699999999998</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K16" s="2">
         <v>444.89100000000002</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L16" s="2">
         <v>444.88600000000002</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H17" s="8">
-        <f t="shared" ref="H17:K17" si="6">+H5/D5-1</f>
+      <c r="M16" s="2">
+        <v>444.762</v>
+      </c>
+      <c r="N16" s="2">
+        <v>444.70600000000002</v>
+      </c>
+      <c r="V16" s="10">
+        <f>AVERAGE(K16:N16)</f>
+        <v>444.81124999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" ref="H18:K18" si="11">+H6/D6-1</f>
         <v>5.7467520717982223E-2</v>
       </c>
-      <c r="I17" s="8">
-        <f t="shared" si="6"/>
+      <c r="I18" s="8">
+        <f t="shared" si="11"/>
         <v>9.0720996122874986E-2</v>
       </c>
-      <c r="J17" s="8">
-        <f t="shared" si="6"/>
+      <c r="J18" s="8">
+        <f t="shared" si="11"/>
         <v>9.6023511825586993E-3</v>
       </c>
-      <c r="K17" s="8">
-        <f t="shared" si="6"/>
+      <c r="K18" s="8">
+        <f t="shared" si="11"/>
         <v>7.5295420335991903E-2</v>
       </c>
-      <c r="L17" s="8">
-        <f>+L5/H5-1</f>
+      <c r="L18" s="8">
+        <f>+L6/H6-1</f>
         <v>9.0363095034392993E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+      <c r="M18" s="8">
+        <f>+M6/I6-1</f>
+        <v>8.0150388789199445E-2</v>
+      </c>
+      <c r="N18" s="8">
+        <f>+N6/J6-1</f>
+        <v>8.1044455876632782E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <f>5802-C20</f>
+        <v>5802</v>
+      </c>
+      <c r="E20" s="2">
+        <f>7343-D20-C20</f>
+        <v>1541</v>
+      </c>
+      <c r="F20" s="2">
+        <f>11068-E20-D20-C20</f>
+        <v>3725</v>
+      </c>
+      <c r="G20" s="2">
+        <v>4651</v>
+      </c>
+      <c r="H20" s="2">
+        <f>5382-G20</f>
+        <v>731</v>
+      </c>
+      <c r="I20" s="2">
+        <f>8381-H20-G20</f>
+        <v>2999</v>
+      </c>
+      <c r="J20" s="2">
+        <f>11339-I20-H20-G20</f>
+        <v>2958</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3260</v>
+      </c>
+      <c r="L20" s="2">
+        <f>6008-K20</f>
+        <v>2748</v>
+      </c>
+      <c r="M20" s="2">
+        <f>9468-L20-K20</f>
+        <v>3460</v>
+      </c>
+      <c r="N20" s="2">
+        <f>13335-M20-L20-K20</f>
+        <v>3867</v>
+      </c>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+    </row>
+    <row r="21" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="2">
-        <f>5802-C19</f>
-        <v>5802</v>
-      </c>
-      <c r="E19" s="2">
-        <f>7343-D19-C19</f>
-        <v>1541</v>
-      </c>
-      <c r="F19" s="2">
-        <f>11068-E19-D19-C19</f>
-        <v>3725</v>
-      </c>
-      <c r="G19" s="2">
-        <v>4651</v>
-      </c>
-      <c r="H19" s="2">
-        <f>5382-G19</f>
-        <v>731</v>
-      </c>
-      <c r="I19" s="2">
-        <f>8381-H19-G19</f>
-        <v>2999</v>
-      </c>
-      <c r="J19" s="2">
-        <f>11339-I19-H19-G19</f>
-        <v>2958</v>
-      </c>
-      <c r="K19" s="2">
-        <v>3260</v>
-      </c>
-      <c r="L19" s="2">
-        <f>6008-K19</f>
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="D21" s="2">
+        <f>-1947-C21</f>
+        <v>-1947</v>
+      </c>
+      <c r="E21" s="2">
+        <f>-2767-D21-C21</f>
+        <v>-820</v>
+      </c>
+      <c r="F21" s="2">
+        <f>-1622-E21-D21-C21</f>
+        <v>1145</v>
+      </c>
+      <c r="G21" s="2">
+        <v>-1040</v>
+      </c>
+      <c r="H21" s="2">
+        <f>-2071-G21</f>
+        <v>-1031</v>
+      </c>
+      <c r="I21" s="2">
+        <f>-3133-H21-G21</f>
+        <v>-1062</v>
+      </c>
+      <c r="J21" s="2">
+        <f>-4710-I21-H21-G21</f>
+        <v>-1577</v>
+      </c>
+      <c r="K21" s="2">
+        <v>-1264</v>
+      </c>
+      <c r="L21" s="2">
+        <f>-2401-K21</f>
+        <v>-1137</v>
+      </c>
+      <c r="M21" s="2">
+        <f>-3532-L21-K21</f>
+        <v>-1131</v>
+      </c>
+      <c r="N21" s="2">
+        <f>-5498-M21-L21-K21</f>
+        <v>-1966</v>
+      </c>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+    </row>
+    <row r="22" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="2">
-        <f>-1947-C20</f>
-        <v>-1947</v>
-      </c>
-      <c r="E20" s="2">
-        <f>-2767-D20-C20</f>
-        <v>-820</v>
-      </c>
-      <c r="F20" s="2">
-        <f>-1622-E20-D20-C20</f>
-        <v>1145</v>
-      </c>
-      <c r="G20" s="2">
-        <v>-1040</v>
-      </c>
-      <c r="H20" s="2">
-        <f>-2071-G20</f>
-        <v>-1031</v>
-      </c>
-      <c r="I20" s="2">
-        <f>-3133-H20-G20</f>
-        <v>-1062</v>
-      </c>
-      <c r="J20" s="2">
-        <f>-4710-I20-H20-G20</f>
-        <v>-1577</v>
-      </c>
-      <c r="K20" s="2">
-        <v>-1264</v>
-      </c>
-      <c r="L20" s="2">
-        <f>-2401-K20</f>
-        <v>-1137</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2">
-        <f t="shared" ref="D21:L21" si="7">+D19+D20</f>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:N22" si="12">+D20+D21</f>
         <v>3855</v>
       </c>
-      <c r="E21" s="2">
-        <f t="shared" si="7"/>
+      <c r="E22" s="2">
+        <f t="shared" si="12"/>
         <v>721</v>
       </c>
-      <c r="F21" s="2">
-        <f t="shared" si="7"/>
+      <c r="F22" s="2">
+        <f t="shared" si="12"/>
         <v>4870</v>
       </c>
-      <c r="G21" s="2">
-        <f t="shared" si="7"/>
+      <c r="G22" s="2">
+        <f t="shared" si="12"/>
         <v>3611</v>
       </c>
-      <c r="H21" s="2">
-        <f t="shared" si="7"/>
+      <c r="H22" s="2">
+        <f t="shared" si="12"/>
         <v>-300</v>
       </c>
-      <c r="I21" s="2">
-        <f t="shared" si="7"/>
+      <c r="I22" s="2">
+        <f t="shared" si="12"/>
         <v>1937</v>
       </c>
-      <c r="J21" s="2">
-        <f t="shared" si="7"/>
+      <c r="J22" s="2">
+        <f t="shared" si="12"/>
         <v>1381</v>
       </c>
-      <c r="K21" s="2">
-        <f t="shared" si="7"/>
+      <c r="K22" s="2">
+        <f t="shared" si="12"/>
         <v>1996</v>
       </c>
-      <c r="L21" s="2">
-        <f t="shared" si="7"/>
+      <c r="L22" s="2">
+        <f t="shared" si="12"/>
         <v>1611</v>
+      </c>
+      <c r="M22" s="2">
+        <f t="shared" si="12"/>
+        <v>2329</v>
+      </c>
+      <c r="N22" s="2">
+        <f t="shared" si="12"/>
+        <v>1901</v>
+      </c>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="2">
+        <f>+M25-M38</f>
+        <v>9133</v>
+      </c>
+      <c r="N24" s="2">
+        <f>+N25-N38</f>
+        <v>9571</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="2">
+        <f>13836+1014</f>
+        <v>14850</v>
+      </c>
+      <c r="N25" s="2">
+        <f>14161+1123</f>
+        <v>15284</v>
+      </c>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+    </row>
+    <row r="26" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2875</v>
+      </c>
+      <c r="N26" s="2">
+        <v>3203</v>
+      </c>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+    </row>
+    <row r="27" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="2">
+        <v>18606</v>
+      </c>
+      <c r="N27" s="2">
+        <v>18116</v>
+      </c>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+    </row>
+    <row r="28" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1820</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1777</v>
+      </c>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+    </row>
+    <row r="29" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="2">
+        <v>30582</v>
+      </c>
+      <c r="N29" s="2">
+        <v>31909</v>
+      </c>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+    </row>
+    <row r="30" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2718</v>
+      </c>
+      <c r="N30" s="2">
+        <v>2725</v>
+      </c>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+    </row>
+    <row r="31" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" s="2">
+        <v>4031</v>
+      </c>
+      <c r="N31" s="2">
+        <v>4085</v>
+      </c>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+    </row>
+    <row r="32" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="2">
+        <f>SUM(M25:M31)</f>
+        <v>75482</v>
+      </c>
+      <c r="N32" s="2">
+        <f>SUM(N25:N31)</f>
+        <v>77099</v>
+      </c>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="2">
+        <v>19820</v>
+      </c>
+      <c r="N34" s="2">
+        <v>19783</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4813</v>
+      </c>
+      <c r="N35" s="2">
+        <v>5205</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" s="2">
+        <f>2583+2931</f>
+        <v>5514</v>
+      </c>
+      <c r="N36" s="2">
+        <f>2677+2854</f>
+        <v>5531</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M37" s="2">
+        <v>7432</v>
+      </c>
+      <c r="N37" s="2">
+        <v>6589</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" s="2">
+        <v>5717</v>
+      </c>
+      <c r="N38" s="2">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="2">
+        <v>2463</v>
+      </c>
+      <c r="N39" s="2">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2598</v>
+      </c>
+      <c r="N40" s="2">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M41" s="2">
+        <v>27125</v>
+      </c>
+      <c r="N41" s="2">
+        <v>29164</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" s="2">
+        <f>SUM(M34:M41)</f>
+        <v>75482</v>
+      </c>
+      <c r="N42" s="2">
+        <f>SUM(N34:N41)</f>
+        <v>77099</v>
       </c>
     </row>
   </sheetData>
@@ -1279,5 +1922,6 @@
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8700012B-1663-4F72-A9B4-B92390B41D1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>